--- a/environmental-data/example-environmental-data.xlsx
+++ b/environmental-data/example-environmental-data.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sr41756\workspaces\misc\germinate-data-templates\environmental-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356A8589-687F-4FC3-9F80-5B5605D3DE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D890E4-B72A-4FB9-A7DB-37AAA6B8C379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="885" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="3" r:id="rId1"/>
-    <sheet name="ATTRIBUTES" sheetId="11" r:id="rId2"/>
-    <sheet name="COLLABORATORS" sheetId="9" r:id="rId3"/>
-    <sheet name="LOCATION" sheetId="12" r:id="rId4"/>
-    <sheet name="ENVIRONMENTAL VARIABLES" sheetId="2" r:id="rId5"/>
-    <sheet name="DATA" sheetId="6" r:id="rId6"/>
+    <sheet name="ENVIRONMENTAL VARIABLES" sheetId="2" r:id="rId2"/>
+    <sheet name="DATA" sheetId="6" r:id="rId3"/>
+    <sheet name="ATTRIBUTES" sheetId="11" r:id="rId4"/>
+    <sheet name="COLLABORATORS" sheetId="9" r:id="rId5"/>
+    <sheet name="LOCATION" sheetId="12" r:id="rId6"/>
     <sheet name="LOCATION_EXAMPLE" sheetId="13" r:id="rId7"/>
     <sheet name="ENVIRONMENTAL VARIABLES_EXAMPLE" sheetId="5" r:id="rId8"/>
     <sheet name="DATA_EXAMPLE" sheetId="4" r:id="rId9"/>
@@ -74,9 +74,6 @@
     <t>Additional Information</t>
   </si>
   <si>
-    <t>Please include any additional information that details how this experiment was carried out in a text or Word document and send along with this template. If there are any images please send these as individual JPG files.</t>
-  </si>
-  <si>
     <t>Help and Assistance</t>
   </si>
   <si>
@@ -1634,9 +1631,6 @@
     <t>DE</t>
   </si>
   <si>
-    <t>The "CLIMATES" sheet should contain a definition of the different climactic variables evaluated in your experiment. The "DATA" sheet should contain the climate values in a matrix format where the columns are the climate names and the rows are lines/germplasm names (ACCENUMB of the MCPD). Each cell should contain the climate value for the combination of climate and line/germplasm. Missing data should be represented by an empty cell (not NA or a dash). See the "DATA_EXAMPLE " sheet for an example. Also note, that we only deal with means, i.e. for each line/germplasm and climate there should only be one value.</t>
-  </si>
-  <si>
     <t>Investigation Title</t>
   </si>
   <si>
@@ -1695,6 +1689,12 @@
   </si>
   <si>
     <t>author; corresponding author</t>
+  </si>
+  <si>
+    <t>The "ENVIRONMENT VARIABLES" sheet should contain a definition of the different climactic variables evaluated in your experiment. The "DATA" sheet should contain the climate values in a matrix format where the columns are the climate names and the rows are lines/germplasm names (ACCENUMB of the MCPD). Each cell should contain the climate value for the combination of climate and line/germplasm. Missing data should be represented by an empty cell (not NA or a dash). See the "DATA_EXAMPLE " sheet for an example. Also note, that we only deal with means, i.e. for each line/germplasm and climate there should only be one value.</t>
+  </si>
+  <si>
+    <t>Please include any additional information that details how this experiment was carried out in a text or Word document and send along with this template. If there are any images please send these as individual JPG files. Mandatory fields are highlighted in yellow.</t>
   </si>
 </sst>
 </file>
@@ -1912,37 +1912,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1969,6 +1938,30 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2064,6 +2057,13 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2104,63 +2104,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E9C1DF31-2EE3-424B-A72B-99348C1B5FDE}" name="Table711" displayName="Table711" ref="A1:C18" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E9C1DF31-2EE3-424B-A72B-99348C1B5FDE}" name="Table711" displayName="Table711" ref="A1:C18" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:C18" xr:uid="{E9C1DF31-2EE3-424B-A72B-99348C1B5FDE}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{61ECE383-1A73-43C5-8129-1E59FB9CB3B4}" name="LABEL" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{E9037F23-2B83-4CBF-AE1A-1F3B0D330DC8}" name="DEFINITION" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{E2084DB3-09AF-4E26-8D49-4BC7DC729159}" name="VALUE" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{61ECE383-1A73-43C5-8129-1E59FB9CB3B4}" name="LABEL" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{E9037F23-2B83-4CBF-AE1A-1F3B0D330DC8}" name="DEFINITION" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{E2084DB3-09AF-4E26-8D49-4BC7DC729159}" name="VALUE" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{61617974-7B97-4C3B-BA5A-15C9DF6B5915}" name="Table1" displayName="Table1" ref="A1:C2" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{AFAF2A04-D11A-4761-ABA6-DA7D533456A3}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6687827E-20FF-44CC-820C-7FCA95E05637}" name="Attribute"/>
-    <tableColumn id="3" xr3:uid="{E9386995-F6BE-45FD-B47F-6F50A0356B8E}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{9A9860D2-E2EF-4AF1-AF01-F935BF554D92}" name="Value"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{35BDF020-ABCA-4439-B958-8014090B32CC}" name="Table8" displayName="Table8" ref="A1:I4" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:I4" xr:uid="{1B38FBA2-DC2A-4EE8-9782-869C402F129F}"/>
-  <tableColumns count="9">
-    <tableColumn id="2" xr3:uid="{11A585B5-EAF2-4086-9D85-0D60A53887C4}" name="Last Name" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{4077ACA3-84ED-4981-AB4E-365AEBA76825}" name="First Name" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{8680B7CB-5142-4676-AD2D-01FA52980B5E}" name="Contributor role"/>
-    <tableColumn id="6" xr3:uid="{C5FE9660-07AA-40E4-8BA9-764360EE3BCB}" name="Contributor ID"/>
-    <tableColumn id="4" xr3:uid="{0A90BD52-57A6-4CDE-BA8E-5136E8A1EAB8}" name="Email" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{03F1C9C1-7B2C-4F0C-B099-1F465D301B93}" name="Phone" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{65BCBC93-FC74-4E14-B6A5-BF465AB5D91D}" name="Contributor" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{5C332E95-780E-414E-B1E2-86318BE35F31}" name="Address" dataDxfId="8"/>
-    <tableColumn id="1" xr3:uid="{9A8DCFA6-0AF2-4BA7-95EB-E0D0FE3A6153}" name="Country" dataDxfId="7"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{376E0828-B1C1-4AFF-B4F4-C03E354475D7}" name="Table95" displayName="Table95" ref="A1:F3" totalsRowShown="0">
-  <autoFilter ref="A1:F3" xr:uid="{F306CE21-39EE-45D2-AB94-5ADE676E2651}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2A6BC859-A031-4E7E-B386-7043D78E13E4}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{1532EEA8-FBA8-4F62-988D-C756C4291723}" name="Short name"/>
-    <tableColumn id="3" xr3:uid="{93CE9368-4F8A-4A78-B908-E2ADBCD5021B}" name="Country"/>
-    <tableColumn id="4" xr3:uid="{5917AE4E-E278-40FE-9090-D992B403CD8F}" name="Elevation"/>
-    <tableColumn id="5" xr3:uid="{261E99C1-9EAC-4089-B65C-C127DC45BBB9}" name="Latitude"/>
-    <tableColumn id="6" xr3:uid="{963624C1-42B4-4F15-BB37-A2808A8E1C85}" name="Longitude"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CDF6150C-EB7C-4511-B47B-2F8122570053}" name="Table136" displayName="Table136" ref="A1:G6" totalsRowShown="0">
   <autoFilter ref="A1:G6" xr:uid="{4E670C69-5459-4D42-BBD4-1C0FE57A115B}"/>
   <tableColumns count="7">
@@ -2176,7 +2131,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{22E566EA-CF41-4BD4-A877-BF1A04CBE27C}" name="Table47" displayName="Table47" ref="A1:G501" totalsRowShown="0">
   <autoFilter ref="A1:G501" xr:uid="{C24E8378-3794-454E-84CF-B08C2B5A27D2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G501">
@@ -2184,12 +2139,57 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{CCD80E05-5388-423E-BBDC-2354AB7B8FC3}" name="Location/Climate"/>
-    <tableColumn id="2" xr3:uid="{466AEB02-1AD0-430A-B6D8-FF71A9F751B4}" name="Date" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{466AEB02-1AD0-430A-B6D8-FF71A9F751B4}" name="Date" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{D5E96A56-F794-4845-8A1D-D8184A14F25E}" name="Cloud Cover"/>
     <tableColumn id="4" xr3:uid="{BA6ACCBD-2A1E-49AC-94A1-8FFF6363322B}" name="Wet Day Frequency"/>
     <tableColumn id="5" xr3:uid="{8AF44A7D-6B3D-4B5C-8684-C56FDD829041}" name="Frost Day Frequency"/>
     <tableColumn id="6" xr3:uid="{9E79C355-1F20-4F56-ADF4-6FF671743CC1}" name="Potential Evapotransipiration"/>
     <tableColumn id="7" xr3:uid="{FDB5033E-A92B-49D7-8FC0-C2461A486C75}" name="Vapour Pressure"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{61617974-7B97-4C3B-BA5A-15C9DF6B5915}" name="Table1" displayName="Table1" ref="A1:C2" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{AFAF2A04-D11A-4761-ABA6-DA7D533456A3}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6687827E-20FF-44CC-820C-7FCA95E05637}" name="Attribute"/>
+    <tableColumn id="3" xr3:uid="{E9386995-F6BE-45FD-B47F-6F50A0356B8E}" name="Type"/>
+    <tableColumn id="2" xr3:uid="{9A9860D2-E2EF-4AF1-AF01-F935BF554D92}" name="Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{35BDF020-ABCA-4439-B958-8014090B32CC}" name="Table8" displayName="Table8" ref="A1:I4" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I4" xr:uid="{1B38FBA2-DC2A-4EE8-9782-869C402F129F}"/>
+  <tableColumns count="9">
+    <tableColumn id="2" xr3:uid="{11A585B5-EAF2-4086-9D85-0D60A53887C4}" name="Last Name" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{4077ACA3-84ED-4981-AB4E-365AEBA76825}" name="First Name" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{8680B7CB-5142-4676-AD2D-01FA52980B5E}" name="Contributor role"/>
+    <tableColumn id="6" xr3:uid="{C5FE9660-07AA-40E4-8BA9-764360EE3BCB}" name="Contributor ID"/>
+    <tableColumn id="4" xr3:uid="{0A90BD52-57A6-4CDE-BA8E-5136E8A1EAB8}" name="Email" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{03F1C9C1-7B2C-4F0C-B099-1F465D301B93}" name="Phone" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{65BCBC93-FC74-4E14-B6A5-BF465AB5D91D}" name="Contributor" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{5C332E95-780E-414E-B1E2-86318BE35F31}" name="Address" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{9A8DCFA6-0AF2-4BA7-95EB-E0D0FE3A6153}" name="Country" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{376E0828-B1C1-4AFF-B4F4-C03E354475D7}" name="Table95" displayName="Table95" ref="A1:F3" totalsRowShown="0">
+  <autoFilter ref="A1:F3" xr:uid="{F306CE21-39EE-45D2-AB94-5ADE676E2651}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{2A6BC859-A031-4E7E-B386-7043D78E13E4}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{1532EEA8-FBA8-4F62-988D-C756C4291723}" name="Short name"/>
+    <tableColumn id="3" xr3:uid="{93CE9368-4F8A-4A78-B908-E2ADBCD5021B}" name="Country"/>
+    <tableColumn id="4" xr3:uid="{5917AE4E-E278-40FE-9090-D992B403CD8F}" name="Elevation"/>
+    <tableColumn id="5" xr3:uid="{261E99C1-9EAC-4089-B65C-C127DC45BBB9}" name="Latitude"/>
+    <tableColumn id="6" xr3:uid="{963624C1-42B4-4F15-BB37-A2808A8E1C85}" name="Longitude"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2503,7 +2503,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2519,24 +2519,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2544,81 +2544,81 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -2627,61 +2627,61 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C13" s="31"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C15" s="31"/>
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C16" s="31"/>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C17" s="31"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C18" s="31"/>
     </row>
@@ -2698,7 +2698,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2712,25 +2712,25 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>11</v>
+        <v>547</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2743,312 +2743,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829331A2-8F6C-4EC4-B723-84C59F96FDF0}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H3" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H4" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H5" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{A99E7B79-269E-427E-A290-9658276FC0EE}">
-      <formula1>$H$2:$H$5</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2115B6D0-8EC1-4029-B8F6-04E7D9736B3A}">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="42.42578125" style="20" customWidth="1"/>
-    <col min="2" max="4" width="40.85546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="46.42578125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="53.140625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="42.28515625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="25" style="20" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="20" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>542</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>543</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>544</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>545</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>546</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>547</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{951A75F7-9D83-4062-A7DB-FACA051BDF1B}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{F823BE20-EE66-4B0B-B274-ED477E4F3F15}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId4"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15060F94-A002-4DF7-B5C1-F50E070EED1D}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="2">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2">
-        <v>56.483772999999999</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-3.1137009999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D3" s="2">
-        <v>157</v>
-      </c>
-      <c r="E3" s="2">
-        <v>51.829211999999998</v>
-      </c>
-      <c r="F3" s="2">
-        <v>11.270479</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:A3">
-    <cfRule type="containsBlanks" dxfId="4" priority="1">
-      <formula>LEN(TRIM(A1))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ISO 3166-1 alpha-2" prompt="https://en.wikipedia.org/wiki/ISO_3166-1_alpha-2_x000a_" sqref="C1" xr:uid="{D8191B89-1BA7-4D9F-9206-C90041F1F31E}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -3092,124 +2786,124 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" t="s">
         <v>66</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3232,7 +2926,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A6 D2:D6">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
+    <cfRule type="containsBlanks" dxfId="14" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3257,7 +2951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G501"/>
   <sheetViews>
@@ -3273,33 +2967,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>73</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C2">
         <v>71.257798170000001</v>
@@ -3319,10 +3013,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C3">
         <v>71.166972479999998</v>
@@ -3342,10 +3036,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C4">
         <v>81.969724769999999</v>
@@ -3365,10 +3059,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C5">
         <v>65.707339450000006</v>
@@ -3388,10 +3082,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C6">
         <v>74.703669719999994</v>
@@ -3411,10 +3105,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C7">
         <v>73.083486239999999</v>
@@ -3434,10 +3128,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C8">
         <v>72.968807339999998</v>
@@ -3457,10 +3151,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C9">
         <v>76.782568810000001</v>
@@ -3480,10 +3174,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C10">
         <v>71.926605499999994</v>
@@ -3503,10 +3197,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C11">
         <v>68.669724770000002</v>
@@ -3526,10 +3220,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C12">
         <v>81.202752290000006</v>
@@ -3549,10 +3243,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C13">
         <v>70.068807340000006</v>
@@ -3572,10 +3266,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14">
         <v>76.370642200000006</v>
@@ -3595,10 +3289,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C15">
         <v>76.220183489999997</v>
@@ -3618,10 +3312,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C16">
         <v>73.533027520000005</v>
@@ -3641,10 +3335,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17">
         <v>75.496330279999995</v>
@@ -3664,10 +3358,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C18">
         <v>69.455045870000006</v>
@@ -3687,10 +3381,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C19">
         <v>82.181651380000005</v>
@@ -3710,10 +3404,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C20">
         <v>60.251376149999999</v>
@@ -3733,10 +3427,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C21">
         <v>73.72752294</v>
@@ -3756,10 +3450,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C22">
         <v>72.500917430000001</v>
@@ -3779,10 +3473,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C23">
         <v>68.874311930000005</v>
@@ -3802,10 +3496,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C24">
         <v>86.238532109999994</v>
@@ -3825,10 +3519,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C25">
         <v>72.380733950000007</v>
@@ -3848,10 +3542,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C26">
         <v>78.649541279999994</v>
@@ -3871,10 +3565,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C27">
         <v>74.407339449999995</v>
@@ -3894,10 +3588,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C28">
         <v>74.642201830000005</v>
@@ -3917,10 +3611,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C29">
         <v>84.869724770000005</v>
@@ -3940,10 +3634,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C30">
         <v>76.544036700000007</v>
@@ -3963,10 +3657,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C31">
         <v>65.731192660000005</v>
@@ -3986,10 +3680,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C32">
         <v>72.079816510000001</v>
@@ -4009,10 +3703,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C33">
         <v>85.031192660000002</v>
@@ -4032,10 +3726,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C34">
         <v>69.360550459999999</v>
@@ -4055,10 +3749,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C35">
         <v>67.743119269999994</v>
@@ -4078,10 +3772,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C36">
         <v>82.41100917</v>
@@ -4101,10 +3795,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C37">
         <v>83.985321099999993</v>
@@ -4124,10 +3818,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C38">
         <v>72.256880730000006</v>
@@ -4147,10 +3841,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C39">
         <v>73.335779819999999</v>
@@ -4170,10 +3864,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40">
         <v>69.388990829999997</v>
@@ -4193,10 +3887,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C41">
         <v>65.670642200000003</v>
@@ -4216,10 +3910,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C42">
         <v>82.538532110000006</v>
@@ -4239,10 +3933,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C43">
         <v>81.257798170000001</v>
@@ -4262,10 +3956,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C44">
         <v>76.030275230000001</v>
@@ -4285,10 +3979,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C45">
         <v>82.648623850000007</v>
@@ -4308,10 +4002,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C46">
         <v>74.932110089999995</v>
@@ -4331,10 +4025,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C47">
         <v>75.557798169999998</v>
@@ -4354,10 +4048,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C48">
         <v>65.368807340000004</v>
@@ -4377,10 +4071,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C49">
         <v>82.040366969999994</v>
@@ -4400,10 +4094,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C50">
         <v>76.3</v>
@@ -4423,10 +4117,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C51">
         <v>68.257798170000001</v>
@@ -4446,10 +4140,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C52">
         <v>66.137614679999999</v>
@@ -4469,10 +4163,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C53">
         <v>64.949541280000005</v>
@@ -4492,10 +4186,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C54">
         <v>79.695412840000003</v>
@@ -4515,10 +4209,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C55">
         <v>96.30183486</v>
@@ -4538,10 +4232,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C56">
         <v>68.843119270000003</v>
@@ -4561,10 +4255,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C57">
         <v>64.64311927</v>
@@ -4584,10 +4278,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C58">
         <v>71.166972479999998</v>
@@ -4607,10 +4301,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C59">
         <v>70.61376147</v>
@@ -4630,10 +4324,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C60">
         <v>75.491743119999995</v>
@@ -4653,10 +4347,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C61">
         <v>67.608256879999999</v>
@@ -4676,10 +4370,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C62">
         <v>60.269724770000003</v>
@@ -4699,10 +4393,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C63">
         <v>73.802752290000001</v>
@@ -4722,10 +4416,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C64">
         <v>79.211926610000006</v>
@@ -4745,10 +4439,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C65">
         <v>68.180733939999996</v>
@@ -4768,10 +4462,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C66">
         <v>70.838532110000003</v>
@@ -4791,10 +4485,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C67">
         <v>87.50458716</v>
@@ -4814,10 +4508,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C68">
         <v>68.389908259999999</v>
@@ -4837,10 +4531,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C69">
         <v>74.645871560000003</v>
@@ -4860,10 +4554,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C70">
         <v>69.417431190000002</v>
@@ -4883,10 +4577,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C71">
         <v>76.634862389999995</v>
@@ -4906,10 +4600,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C72">
         <v>68.911926609999995</v>
@@ -4929,10 +4623,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C73">
         <v>60.154128440000001</v>
@@ -4952,10 +4646,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C74">
         <v>68.49541284</v>
@@ -4975,10 +4669,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C75">
         <v>80.812844040000002</v>
@@ -4998,10 +4692,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C76">
         <v>59.015596330000001</v>
@@ -5021,10 +4715,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C77">
         <v>78.816513760000007</v>
@@ -5044,10 +4738,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C78">
         <v>68.097247710000005</v>
@@ -5067,10 +4761,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C79">
         <v>67.577064219999997</v>
@@ -5090,10 +4784,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C80">
         <v>72.41100917</v>
@@ -5113,10 +4807,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C81">
         <v>74.631192659999996</v>
@@ -5136,10 +4830,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C82">
         <v>95.067889910000005</v>
@@ -5159,10 +4853,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C83">
         <v>66.189908259999996</v>
@@ -5182,10 +4876,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C84">
         <v>61.788990830000003</v>
@@ -5205,10 +4899,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C85">
         <v>63.8</v>
@@ -5228,10 +4922,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C86">
         <v>78.118348620000006</v>
@@ -5251,10 +4945,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C87">
         <v>76.383486239999996</v>
@@ -5274,10 +4968,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C88">
         <v>74.526605500000002</v>
@@ -5297,10 +4991,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C89">
         <v>78.954128440000005</v>
@@ -5320,10 +5014,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C90">
         <v>67.441284400000001</v>
@@ -5343,10 +5037,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C91">
         <v>76.362385320000001</v>
@@ -5366,10 +5060,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C92">
         <v>87.54954128</v>
@@ -5389,10 +5083,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C93">
         <v>79.13394495</v>
@@ -5412,10 +5106,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C94">
         <v>77.305504589999998</v>
@@ -5435,10 +5129,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C95">
         <v>70.127522940000006</v>
@@ -5458,10 +5152,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C96">
         <v>82.577064219999997</v>
@@ -5481,10 +5175,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C97">
         <v>85.035779820000002</v>
@@ -5504,10 +5198,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C98">
         <v>73.666055049999997</v>
@@ -5527,10 +5221,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C99">
         <v>66.774311929999996</v>
@@ -5550,10 +5244,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C100">
         <v>85.000917430000001</v>
@@ -5573,10 +5267,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C101">
         <v>76.855045869999998</v>
@@ -5596,10 +5290,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C102">
         <v>61.869724769999998</v>
@@ -5619,10 +5313,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C103">
         <v>82.536697250000003</v>
@@ -5642,10 +5336,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C104">
         <v>64.41100917</v>
@@ -5665,10 +5359,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C105">
         <v>68.831192659999999</v>
@@ -5688,10 +5382,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C106">
         <v>69.934862390000006</v>
@@ -5711,10 +5405,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C107">
         <v>82.224770640000003</v>
@@ -5734,10 +5428,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C108">
         <v>82.627522940000006</v>
@@ -5757,10 +5451,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C109">
         <v>61.769724770000003</v>
@@ -5780,10 +5474,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C110">
         <v>81.347706419999994</v>
@@ -5803,10 +5497,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C111">
         <v>75.296330280000006</v>
@@ -5826,10 +5520,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C112">
         <v>74.516513759999995</v>
@@ -5849,10 +5543,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C113">
         <v>68.080733940000002</v>
@@ -5872,10 +5566,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C114">
         <v>83.871559629999993</v>
@@ -5895,10 +5589,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C115">
         <v>77.052293579999997</v>
@@ -5918,10 +5612,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C116">
         <v>73.983486240000005</v>
@@ -5941,10 +5635,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C117">
         <v>73.575229359999994</v>
@@ -5964,10 +5658,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C118">
         <v>75.38623853</v>
@@ -5987,10 +5681,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C119">
         <v>76.078899079999999</v>
@@ -6010,10 +5704,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C120">
         <v>73.311009170000005</v>
@@ -6033,10 +5727,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C121">
         <v>75.494495409999999</v>
@@ -6056,10 +5750,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B122" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C122">
         <v>73.823853209999996</v>
@@ -6079,10 +5773,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B123" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C123">
         <v>77.205504590000004</v>
@@ -6102,10 +5796,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B124" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C124">
         <v>65.714678899999996</v>
@@ -6125,10 +5819,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B125" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C125">
         <v>64.696330279999998</v>
@@ -6148,10 +5842,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B126" s="28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C126">
         <v>71.299082569999996</v>
@@ -6171,10 +5865,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B127" s="28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C127">
         <v>67.753211010000001</v>
@@ -6194,10 +5888,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B128" s="28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C128">
         <v>84.887155960000001</v>
@@ -6217,10 +5911,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B129" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C129">
         <v>55</v>
@@ -6240,10 +5934,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B130" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C130">
         <v>77.774311929999996</v>
@@ -6263,10 +5957,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B131" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C131">
         <v>78.352293579999994</v>
@@ -6286,10 +5980,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B132" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C132">
         <v>81.500917430000001</v>
@@ -6309,10 +6003,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C133">
         <v>79.999082569999999</v>
@@ -6332,10 +6026,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B134" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C134">
         <v>79.872477059999994</v>
@@ -6355,10 +6049,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B135" s="28" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C135">
         <v>72.178899079999994</v>
@@ -6378,10 +6072,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B136" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C136">
         <v>81.461467889999994</v>
@@ -6401,10 +6095,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B137" s="28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C137">
         <v>75.496330279999995</v>
@@ -6424,10 +6118,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B138" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C138">
         <v>65.065137609999994</v>
@@ -6447,10 +6141,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B139" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C139">
         <v>72.847706419999994</v>
@@ -6470,10 +6164,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B140" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C140">
         <v>66.177981650000007</v>
@@ -6493,10 +6187,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B141" s="28" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C141">
         <v>86.253211010000001</v>
@@ -6516,10 +6210,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B142" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C142">
         <v>75.455045870000006</v>
@@ -6539,10 +6233,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B143" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C143">
         <v>71.751376149999999</v>
@@ -6562,10 +6256,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B144" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C144">
         <v>82.142201830000005</v>
@@ -6585,10 +6279,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B145" s="28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C145">
         <v>75.396330280000001</v>
@@ -6608,10 +6302,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B146" s="28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C146">
         <v>71.694495410000002</v>
@@ -6631,10 +6325,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B147" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C147">
         <v>68.298165139999995</v>
@@ -6654,10 +6348,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B148" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C148">
         <v>71.298165139999995</v>
@@ -6677,10 +6371,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B149" s="28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C149">
         <v>73.644036700000001</v>
@@ -6700,10 +6394,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B150" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C150">
         <v>71.297247709999994</v>
@@ -6723,10 +6417,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B151" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C151">
         <v>73.820183490000005</v>
@@ -6746,10 +6440,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B152" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C152">
         <v>79.622018350000005</v>
@@ -6769,10 +6463,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B153" s="28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C153">
         <v>70.5</v>
@@ -6792,10 +6486,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B154" s="28" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C154">
         <v>76.114678900000001</v>
@@ -6815,10 +6509,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B155" s="28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C155">
         <v>77.418348620000003</v>
@@ -6838,10 +6532,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B156" s="28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C156">
         <v>80.900000000000006</v>
@@ -6861,10 +6555,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B157" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C157">
         <v>83.126605499999997</v>
@@ -6884,10 +6578,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B158" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C158">
         <v>63.129357800000001</v>
@@ -6907,10 +6601,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B159" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C159">
         <v>75.930275230000007</v>
@@ -6930,10 +6624,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B160" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C160">
         <v>71.060550460000002</v>
@@ -6953,10 +6647,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B161" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C161">
         <v>79.427522940000003</v>
@@ -6976,10 +6670,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B162" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C162">
         <v>69.733027519999993</v>
@@ -6999,10 +6693,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B163" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C163">
         <v>76.156880729999997</v>
@@ -7022,10 +6716,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B164" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C164">
         <v>74.897247710000002</v>
@@ -7045,10 +6739,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B165" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C165">
         <v>76.078899079999999</v>
@@ -7068,10 +6762,10 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B166" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C166">
         <v>75.045871559999995</v>
@@ -7091,10 +6785,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B167" s="28" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C167">
         <v>78.428440370000004</v>
@@ -7114,10 +6808,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B168" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C168">
         <v>75.223853210000001</v>
@@ -7137,10 +6831,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B169" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C169">
         <v>78.63853211</v>
@@ -7160,10 +6854,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B170" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C170">
         <v>68.668807340000001</v>
@@ -7183,10 +6877,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B171" s="28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C171">
         <v>67.375229360000006</v>
@@ -7206,10 +6900,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B172" s="28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C172">
         <v>82.542201829999996</v>
@@ -7229,10 +6923,10 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B173" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C173">
         <v>75.496330279999995</v>
@@ -7252,10 +6946,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B174" s="28" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C174">
         <v>72.868807340000004</v>
@@ -7275,10 +6969,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B175" s="28" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C175">
         <v>77.512844040000004</v>
@@ -7298,10 +6992,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B176" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C176">
         <v>75.223853210000001</v>
@@ -7321,10 +7015,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B177" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C177">
         <v>74.745871559999998</v>
@@ -7344,10 +7038,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B178" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C178">
         <v>69.417431190000002</v>
@@ -7367,10 +7061,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B179" s="28" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C179">
         <v>69.725688070000004</v>
@@ -7390,10 +7084,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B180" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C180">
         <v>72.792660549999994</v>
@@ -7413,10 +7107,10 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B181" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C181">
         <v>66.000917430000001</v>
@@ -7436,10 +7130,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B182" s="28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C182">
         <v>77.368807340000004</v>
@@ -7459,10 +7153,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B183" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C183">
         <v>82.503669720000005</v>
@@ -7482,10 +7176,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B184" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C184">
         <v>86.153211010000007</v>
@@ -7505,10 +7199,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B185" s="28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C185">
         <v>83.936697249999995</v>
@@ -7528,10 +7222,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B186" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C186">
         <v>83.100917429999996</v>
@@ -7551,10 +7245,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B187" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C187">
         <v>78.677064220000005</v>
@@ -7574,10 +7268,10 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B188" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C188">
         <v>73.900000000000006</v>
@@ -7597,10 +7291,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B189" s="28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C189">
         <v>92.491743119999995</v>
@@ -7620,10 +7314,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B190" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C190">
         <v>65.106422019999997</v>
@@ -7643,10 +7337,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B191" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C191">
         <v>92.502752290000004</v>
@@ -7666,10 +7360,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B192" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C192">
         <v>81.684403669999995</v>
@@ -7689,10 +7383,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B193" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C193">
         <v>66.574311929999993</v>
@@ -7712,10 +7406,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B194" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C194">
         <v>63.9</v>
@@ -7735,10 +7429,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B195" s="28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C195">
         <v>67.577064219999997</v>
@@ -7758,10 +7452,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B196" s="28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C196">
         <v>65.914678899999998</v>
@@ -7781,10 +7475,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B197" s="28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C197">
         <v>78.849541279999997</v>
@@ -7804,10 +7498,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B198" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C198">
         <v>77.346788989999993</v>
@@ -7827,10 +7521,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B199" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C199">
         <v>84.998165139999998</v>
@@ -7850,10 +7544,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B200" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C200">
         <v>73.654128439999994</v>
@@ -7873,10 +7567,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B201" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C201">
         <v>62.215596329999997</v>
@@ -7896,10 +7590,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B202" s="28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C202">
         <v>83.575229359999994</v>
@@ -7919,10 +7613,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B203" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C203">
         <v>76.516513759999995</v>
@@ -7942,10 +7636,10 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B204" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C204">
         <v>77.457798170000004</v>
@@ -7965,10 +7659,10 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B205" s="28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C205">
         <v>64.688990829999995</v>
@@ -7988,10 +7682,10 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B206" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C206">
         <v>74.645871560000003</v>
@@ -8011,10 +7705,10 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B207" s="28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C207">
         <v>78.393577980000003</v>
@@ -8034,10 +7728,10 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B208" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C208">
         <v>72.397247710000002</v>
@@ -8057,10 +7751,10 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B209" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C209">
         <v>70.344954130000005</v>
@@ -8080,10 +7774,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B210" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C210">
         <v>93.804587159999997</v>
@@ -8103,10 +7797,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B211" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C211">
         <v>78.193577980000001</v>
@@ -8126,10 +7820,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B212" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C212">
         <v>75.954128440000005</v>
@@ -8149,10 +7843,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B213" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C213">
         <v>68.967889909999997</v>
@@ -8172,10 +7866,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B214" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C214">
         <v>77.244954129999996</v>
@@ -8195,10 +7889,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B215" s="28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C215">
         <v>68.780733940000005</v>
@@ -8218,10 +7912,10 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B216" s="28" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C216">
         <v>69.517431189999996</v>
@@ -8241,10 +7935,10 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B217" s="28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C217">
         <v>69.417431190000002</v>
@@ -8264,10 +7958,10 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B218" s="28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C218">
         <v>79.011009169999994</v>
@@ -8287,10 +7981,10 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B219" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C219">
         <v>76.52477064</v>
@@ -8310,10 +8004,10 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B220" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C220">
         <v>70.991743119999995</v>
@@ -8333,10 +8027,10 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B221" s="28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C221">
         <v>70</v>
@@ -8356,10 +8050,10 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B222" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C222">
         <v>70.938532109999997</v>
@@ -8379,10 +8073,10 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B223" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C223">
         <v>78.566055050000003</v>
@@ -8402,10 +8096,10 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B224" s="28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C224">
         <v>79.737614679999993</v>
@@ -8425,10 +8119,10 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B225" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C225">
         <v>69.430275230000007</v>
@@ -8448,10 +8142,10 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B226" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C226">
         <v>79.679816509999995</v>
@@ -8471,10 +8165,10 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B227" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C227">
         <v>76.205504590000004</v>
@@ -8494,10 +8188,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B228" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C228">
         <v>77.567889910000005</v>
@@ -8517,10 +8211,10 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B229" s="28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C229">
         <v>68.627522940000006</v>
@@ -8540,10 +8234,10 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B230" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C230">
         <v>78.121100920000003</v>
@@ -8563,10 +8257,10 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B231" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C231">
         <v>57.693577980000001</v>
@@ -8586,10 +8280,10 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B232" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C232">
         <v>76.177981650000007</v>
@@ -8609,10 +8303,10 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B233" s="28" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C233">
         <v>69.498165139999998</v>
@@ -8632,10 +8326,10 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B234" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C234">
         <v>65.520183489999994</v>
@@ -8655,10 +8349,10 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B235" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C235">
         <v>60.409174309999997</v>
@@ -8678,10 +8372,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B236" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C236">
         <v>74.997247709999996</v>
@@ -8701,10 +8395,10 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B237" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C237">
         <v>62.733944950000001</v>
@@ -8724,10 +8418,10 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B238" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C238">
         <v>74.060550460000002</v>
@@ -8747,10 +8441,10 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B239" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C239">
         <v>77.105504589999995</v>
@@ -8770,10 +8464,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B240" s="28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C240">
         <v>85.031192660000002</v>
@@ -8793,10 +8487,10 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B241" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C241">
         <v>77.152293580000006</v>
@@ -8816,10 +8510,10 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B242" s="28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C242">
         <v>64.916513760000001</v>
@@ -8839,10 +8533,10 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B243" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C243">
         <v>70.444954129999999</v>
@@ -8862,10 +8556,10 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B244" s="28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C244">
         <v>74.644954130000002</v>
@@ -8885,10 +8579,10 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B245" s="28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C245">
         <v>67.882568809999995</v>
@@ -8908,10 +8602,10 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B246" s="28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C246">
         <v>72.669724770000002</v>
@@ -8931,10 +8625,10 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B247" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C247">
         <v>64.52477064</v>
@@ -8954,10 +8648,10 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B248" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C248">
         <v>82.447706420000003</v>
@@ -8977,10 +8671,10 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B249" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C249">
         <v>79.204587160000003</v>
@@ -9000,10 +8694,10 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B250" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C250">
         <v>78.954128440000005</v>
@@ -9023,10 +8717,10 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B251" s="28" t="s">
         <v>105</v>
-      </c>
-      <c r="B251" s="28" t="s">
-        <v>106</v>
       </c>
       <c r="C251">
         <v>67.688990829999995</v>
@@ -9046,10 +8740,10 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B252" s="28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C252">
         <v>72.065137609999994</v>
@@ -9069,10 +8763,10 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B253" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C253">
         <v>68.400000000000006</v>
@@ -9092,10 +8786,10 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B254" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C254">
         <v>84.917431190000002</v>
@@ -9115,10 +8809,10 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B255" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C255">
         <v>61.278899080000002</v>
@@ -9138,10 +8832,10 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B256" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C256">
         <v>69.817431189999994</v>
@@ -9161,10 +8855,10 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B257" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C257">
         <v>82.410091739999999</v>
@@ -9184,10 +8878,10 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B258" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C258">
         <v>56.333027520000002</v>
@@ -9207,10 +8901,10 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B259" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C259">
         <v>72.21834862</v>
@@ -9230,10 +8924,10 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B260" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C260">
         <v>75.5293578</v>
@@ -9253,10 +8947,10 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B261" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C261">
         <v>76.065137609999994</v>
@@ -9276,10 +8970,10 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B262" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C262">
         <v>70.818348619999995</v>
@@ -9299,10 +8993,10 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B263" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C263">
         <v>66.936697249999995</v>
@@ -9322,10 +9016,10 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B264" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C264">
         <v>75.000917430000001</v>
@@ -9345,10 +9039,10 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B265" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C265">
         <v>70.5</v>
@@ -9368,10 +9062,10 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B266" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C266">
         <v>71.966972479999995</v>
@@ -9391,10 +9085,10 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B267" s="28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C267">
         <v>70.965137609999999</v>
@@ -9414,10 +9108,10 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B268" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C268">
         <v>73.601834859999997</v>
@@ -9437,10 +9131,10 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B269" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C269">
         <v>84.882568809999995</v>
@@ -9460,10 +9154,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B270" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C270">
         <v>65.814678900000004</v>
@@ -9483,10 +9177,10 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B271" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C271">
         <v>71.018348619999998</v>
@@ -9506,10 +9200,10 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B272" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C272">
         <v>62.306422019999999</v>
@@ -9529,10 +9223,10 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B273" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C273">
         <v>70.489908260000007</v>
@@ -9552,10 +9246,10 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B274" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C274">
         <v>76.144036700000001</v>
@@ -9575,10 +9269,10 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B275" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C275">
         <v>75.422935780000003</v>
@@ -9598,10 +9292,10 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B276" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C276">
         <v>72.761467890000006</v>
@@ -9621,10 +9315,10 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B277" s="28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C277">
         <v>71.593577980000006</v>
@@ -9644,10 +9338,10 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B278" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C278">
         <v>81.413761469999997</v>
@@ -9667,10 +9361,10 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B279" s="28" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C279">
         <v>76.775229359999997</v>
@@ -9690,10 +9384,10 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B280" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C280">
         <v>67.980733950000001</v>
@@ -9713,10 +9407,10 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B281" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C281">
         <v>77.428440370000004</v>
@@ -9736,10 +9430,10 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B282" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C282">
         <v>83.724770640000003</v>
@@ -9759,10 +9453,10 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B283" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C283">
         <v>82.395412840000006</v>
@@ -9782,10 +9476,10 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B284" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C284">
         <v>94.905504590000007</v>
@@ -9805,10 +9499,10 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B285" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C285">
         <v>60.000917430000001</v>
@@ -9828,10 +9522,10 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B286" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C286">
         <v>79.760550460000005</v>
@@ -9851,10 +9545,10 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B287" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C287">
         <v>66.648623850000007</v>
@@ -9874,10 +9568,10 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B288" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C288">
         <v>65.006422020000002</v>
@@ -9897,10 +9591,10 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B289" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C289">
         <v>81.195412840000003</v>
@@ -9920,10 +9614,10 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B290" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C290">
         <v>86.236697250000006</v>
@@ -9943,10 +9637,10 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B291" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C291">
         <v>69.725688070000004</v>
@@ -9966,10 +9660,10 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B292" s="28" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C292">
         <v>92.603669719999999</v>
@@ -9989,10 +9683,10 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B293" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C293">
         <v>85.104587159999994</v>
@@ -10012,10 +9706,10 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B294" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C294">
         <v>73.875229360000006</v>
@@ -10035,10 +9729,10 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B295" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C295">
         <v>74.191743119999998</v>
@@ -10058,10 +9752,10 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B296" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C296">
         <v>66.177981650000007</v>
@@ -10081,10 +9775,10 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B297" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C297">
         <v>71.200917430000004</v>
@@ -10104,10 +9798,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B298" s="28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C298">
         <v>73.822935779999995</v>
@@ -10127,10 +9821,10 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B299" s="28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C299">
         <v>62.645871560000003</v>
@@ -10150,10 +9844,10 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B300" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C300">
         <v>76.652293580000006</v>
@@ -10173,10 +9867,10 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B301" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C301">
         <v>72.599082569999993</v>
@@ -10196,10 +9890,10 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B302" s="28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C302">
         <v>71.946788990000002</v>
@@ -10219,10 +9913,10 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B303" s="28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C303">
         <v>76.355963299999999</v>
@@ -10242,10 +9936,10 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B304" s="28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C304">
         <v>75.457798170000004</v>
@@ -10265,10 +9959,10 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B305" s="28" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C305">
         <v>74.896330280000001</v>
@@ -10288,10 +9982,10 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B306" s="28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C306">
         <v>82.418348620000003</v>
@@ -10311,10 +10005,10 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B307" s="28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C307">
         <v>69.007339450000003</v>
@@ -10334,10 +10028,10 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B308" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C308">
         <v>71.501834860000002</v>
@@ -10357,10 +10051,10 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B309" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C309">
         <v>73.425688070000007</v>
@@ -10380,10 +10074,10 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B310" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C310">
         <v>64.24770642</v>
@@ -10403,10 +10097,10 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B311" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C311">
         <v>64.505504590000001</v>
@@ -10426,10 +10120,10 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B312" s="28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C312">
         <v>79.621100920000003</v>
@@ -10449,10 +10143,10 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B313" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C313">
         <v>66.766055050000006</v>
@@ -10472,10 +10166,10 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B314" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C314">
         <v>70.806422019999999</v>
@@ -10495,10 +10189,10 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B315" s="28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C315">
         <v>66.690825689999997</v>
@@ -10518,10 +10212,10 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B316" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C316">
         <v>76.990825689999994</v>
@@ -10541,10 +10235,10 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B317" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C317">
         <v>75.097247710000005</v>
@@ -10564,10 +10258,10 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B318" s="28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C318">
         <v>74.755963300000005</v>
@@ -10587,10 +10281,10 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B319" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C319">
         <v>79.616513760000004</v>
@@ -10610,10 +10304,10 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B320" s="28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C320">
         <v>62.645871560000003</v>
@@ -10633,10 +10327,10 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B321" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C321">
         <v>79.399082570000004</v>
@@ -10656,10 +10350,10 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B322" s="28" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C322">
         <v>71.266055050000006</v>
@@ -10679,10 +10373,10 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B323" s="28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C323">
         <v>75.097247710000005</v>
@@ -10702,10 +10396,10 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B324" s="28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C324">
         <v>80.160550459999996</v>
@@ -10725,10 +10419,10 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B325" s="28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C325">
         <v>60.907339450000002</v>
@@ -10748,10 +10442,10 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B326" s="28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C326">
         <v>71.78165138</v>
@@ -10771,10 +10465,10 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B327" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C327">
         <v>70.397247710000002</v>
@@ -10794,10 +10488,10 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B328" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C328">
         <v>65.575229359999994</v>
@@ -10817,10 +10511,10 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B329" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C329">
         <v>69.657798170000007</v>
@@ -10840,10 +10534,10 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B330" s="28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C330">
         <v>74.845871560000006</v>
@@ -10863,10 +10557,10 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B331" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C331">
         <v>78.744036699999995</v>
@@ -10886,10 +10580,10 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B332" s="28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C332">
         <v>66.395412840000006</v>
@@ -10909,10 +10603,10 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B333" s="28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C333">
         <v>70.001834860000002</v>
@@ -10932,10 +10626,10 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B334" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C334">
         <v>65.187155959999998</v>
@@ -10955,10 +10649,10 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B335" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C335">
         <v>76.177981650000007</v>
@@ -10978,10 +10672,10 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B336" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C336">
         <v>73.69816514</v>
@@ -11001,10 +10695,10 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B337" s="28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C337">
         <v>72.359633029999998</v>
@@ -11024,10 +10718,10 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B338" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C338">
         <v>73.540366969999994</v>
@@ -11047,10 +10741,10 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B339" s="28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C339">
         <v>58.581651379999997</v>
@@ -11070,10 +10764,10 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B340" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C340">
         <v>76.184403669999995</v>
@@ -11093,10 +10787,10 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B341" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C341">
         <v>83.265137609999996</v>
@@ -11116,10 +10810,10 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B342" s="28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C342">
         <v>76.446788990000002</v>
@@ -11139,10 +10833,10 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B343" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C343">
         <v>75.557798169999998</v>
@@ -11162,10 +10856,10 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B344" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C344">
         <v>67.244954129999996</v>
@@ -11185,10 +10879,10 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B345" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C345">
         <v>74.160550459999996</v>
@@ -11208,10 +10902,10 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B346" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C346">
         <v>83.713761469999994</v>
@@ -11231,10 +10925,10 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B347" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C347">
         <v>76.828440369999996</v>
@@ -11254,10 +10948,10 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B348" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C348">
         <v>84.795412839999997</v>
@@ -11277,10 +10971,10 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B349" s="28" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C349">
         <v>67.544036700000007</v>
@@ -11300,10 +10994,10 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B350" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C350">
         <v>80.403669719999996</v>
@@ -11323,10 +11017,10 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B351" s="28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C351">
         <v>82.581651379999997</v>
@@ -11346,10 +11040,10 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B352" s="28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C352">
         <v>81.351376149999993</v>
@@ -11369,10 +11063,10 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B353" s="28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C353">
         <v>85.089908260000001</v>
@@ -11392,10 +11086,10 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B354" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C354">
         <v>81.199082570000002</v>
@@ -11415,10 +11109,10 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B355" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C355">
         <v>79.628440370000007</v>
@@ -11438,10 +11132,10 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B356" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C356">
         <v>66.548623849999998</v>
@@ -11461,10 +11155,10 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B357" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C357">
         <v>81.204587160000003</v>
@@ -11484,10 +11178,10 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B358" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C358">
         <v>79.076146789999996</v>
@@ -11507,10 +11201,10 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B359" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C359">
         <v>76.477064220000003</v>
@@ -11530,10 +11224,10 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B360" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C360">
         <v>75.067889910000005</v>
@@ -11553,10 +11247,10 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B361" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C361">
         <v>67.275229359999997</v>
@@ -11576,10 +11270,10 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B362" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C362">
         <v>63.697247709999999</v>
@@ -11599,10 +11293,10 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B363" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C363">
         <v>67.627522940000006</v>
@@ -11622,10 +11316,10 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B364" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C364">
         <v>60.540366970000001</v>
@@ -11645,10 +11339,10 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B365" s="28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C365">
         <v>81.398165140000003</v>
@@ -11668,10 +11362,10 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B366" s="28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C366">
         <v>76.650458720000003</v>
@@ -11691,10 +11385,10 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B367" s="28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C367">
         <v>74.083486239999999</v>
@@ -11714,10 +11408,10 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B368" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C368">
         <v>73.051376149999996</v>
@@ -11737,10 +11431,10 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B369" s="28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C369">
         <v>84.933027519999996</v>
@@ -11760,10 +11454,10 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B370" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C370">
         <v>65.710091739999996</v>
@@ -11783,10 +11477,10 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B371" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C371">
         <v>67.634862389999995</v>
@@ -11806,10 +11500,10 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B372" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C372">
         <v>72.767889909999994</v>
@@ -11829,10 +11523,10 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B373" s="28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C373">
         <v>67.25229358</v>
@@ -11852,10 +11546,10 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B374" s="28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C374">
         <v>75.045871559999995</v>
@@ -11875,10 +11569,10 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B375" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C375">
         <v>78.669724770000002</v>
@@ -11898,10 +11592,10 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B376" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C376">
         <v>85.031192660000002</v>
@@ -11921,10 +11615,10 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B377" s="28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C377">
         <v>69.055963300000002</v>
@@ -11944,10 +11638,10 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B378" s="28" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C378">
         <v>85.973394499999998</v>
@@ -11967,10 +11661,10 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B379" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C379">
         <v>69.91559633</v>
@@ -11990,10 +11684,10 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B380" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C380">
         <v>76.716513759999998</v>
@@ -12013,10 +11707,10 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B381" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C381">
         <v>74.645871560000003</v>
@@ -12036,10 +11730,10 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B382" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C382">
         <v>66.774311929999996</v>
@@ -12059,10 +11753,10 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B383" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C383">
         <v>82.444036699999998</v>
@@ -12082,10 +11776,10 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B384" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C384">
         <v>76.783486240000002</v>
@@ -12105,10 +11799,10 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B385" s="28" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C385">
         <v>84.880733950000007</v>
@@ -12128,10 +11822,10 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B386" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C386">
         <v>77.774311929999996</v>
@@ -12151,10 +11845,10 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B387" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C387">
         <v>77.827522939999994</v>
@@ -12174,10 +11868,10 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B388" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C388">
         <v>74.761467890000006</v>
@@ -12197,10 +11891,10 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B389" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C389">
         <v>76.030275230000001</v>
@@ -12220,10 +11914,10 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B390" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C390">
         <v>68.804587159999997</v>
@@ -12243,10 +11937,10 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B391" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C391">
         <v>68.697247709999999</v>
@@ -12266,10 +11960,10 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B392" s="28" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C392">
         <v>86.329357799999997</v>
@@ -12289,10 +11983,10 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B393" s="28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C393">
         <v>77.305504589999998</v>
@@ -12312,10 +12006,10 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B394" s="28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C394">
         <v>71.274311929999996</v>
@@ -12335,10 +12029,10 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B395" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C395">
         <v>74.845871560000006</v>
@@ -12358,10 +12052,10 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B396" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C396">
         <v>79.400917430000007</v>
@@ -12381,10 +12075,10 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B397" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C397">
         <v>76.355963299999999</v>
@@ -12404,10 +12098,10 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B398" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C398">
         <v>80.154128439999994</v>
@@ -12427,10 +12121,10 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B399" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C399">
         <v>74.229357800000002</v>
@@ -12450,10 +12144,10 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B400" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C400">
         <v>68.730275230000004</v>
@@ -12473,10 +12167,10 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B401" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C401">
         <v>76.168807340000001</v>
@@ -12496,10 +12190,10 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B402" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C402">
         <v>82.790825690000005</v>
@@ -12519,10 +12213,10 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B403" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C403">
         <v>79.888990829999997</v>
@@ -12542,10 +12236,10 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B404" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C404">
         <v>70.015596329999994</v>
@@ -12565,10 +12259,10 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B405" s="28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C405">
         <v>71.601834859999997</v>
@@ -12588,10 +12282,10 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B406" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C406">
         <v>77.566055050000003</v>
@@ -12611,10 +12305,10 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B407" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C407">
         <v>62.889908259999999</v>
@@ -12634,10 +12328,10 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B408" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C408">
         <v>79.823853209999996</v>
@@ -12657,10 +12351,10 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B409" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C409">
         <v>63.641284400000004</v>
@@ -12680,10 +12374,10 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B410" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C410">
         <v>76.245871559999998</v>
@@ -12703,10 +12397,10 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B411" s="28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C411">
         <v>76.283486240000002</v>
@@ -12726,10 +12420,10 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B412" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C412">
         <v>84.789908260000004</v>
@@ -12749,10 +12443,10 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B413" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C413">
         <v>74.745871559999998</v>
@@ -12772,10 +12466,10 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B414" s="28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C414">
         <v>86.326605499999999</v>
@@ -12795,10 +12489,10 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B415" s="28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C415">
         <v>75.914678899999998</v>
@@ -12818,10 +12512,10 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B416" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C416">
         <v>72.58440367</v>
@@ -12841,10 +12535,10 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B417" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C417">
         <v>76.844954130000005</v>
@@ -12864,10 +12558,10 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B418" s="28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C418">
         <v>62.289908259999997</v>
@@ -12887,10 +12581,10 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B419" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C419">
         <v>71.368807340000004</v>
@@ -12910,10 +12604,10 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B420" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C420">
         <v>62.022018350000003</v>
@@ -12933,10 +12627,10 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B421" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C421">
         <v>77.205504590000004</v>
@@ -12956,10 +12650,10 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B422" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C422">
         <v>78.489908260000007</v>
@@ -12979,10 +12673,10 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B423" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C423">
         <v>67.33211009</v>
@@ -13002,10 +12696,10 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B424" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C424">
         <v>71.103669719999999</v>
@@ -13025,10 +12719,10 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B425" s="28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C425">
         <v>77.292660549999994</v>
@@ -13048,10 +12742,10 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B426" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C426">
         <v>83.824770639999997</v>
@@ -13071,10 +12765,10 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B427" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C427">
         <v>75.978899080000005</v>
@@ -13094,10 +12788,10 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B428" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C428">
         <v>90.097247710000005</v>
@@ -13117,10 +12811,10 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B429" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C429">
         <v>69.625688069999995</v>
@@ -13140,10 +12834,10 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B430" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C430">
         <v>87.311009170000005</v>
@@ -13163,10 +12857,10 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B431" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C431">
         <v>79.22752294</v>
@@ -13186,10 +12880,10 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B432" s="28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C432">
         <v>86.21834862</v>
@@ -13209,10 +12903,10 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B433" s="28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C433">
         <v>77.213761469999994</v>
@@ -13232,10 +12926,10 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B434" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C434">
         <v>75.296330280000006</v>
@@ -13255,10 +12949,10 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B435" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C435">
         <v>64.087155960000004</v>
@@ -13278,10 +12972,10 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B436" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C436">
         <v>79.200917430000004</v>
@@ -13301,10 +12995,10 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B437" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C437">
         <v>78.902752289999995</v>
@@ -13324,10 +13018,10 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B438" s="28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C438">
         <v>81.202752290000006</v>
@@ -13347,10 +13041,10 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B439" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C439">
         <v>69.429357800000005</v>
@@ -13370,10 +13064,10 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B440" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C440">
         <v>78.791743120000007</v>
@@ -13393,10 +13087,10 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B441" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C441">
         <v>70.910091739999999</v>
@@ -13416,10 +13110,10 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B442" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C442">
         <v>82.403669719999996</v>
@@ -13439,10 +13133,10 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B443" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C443">
         <v>83.592660550000005</v>
@@ -13462,10 +13156,10 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B444" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C444">
         <v>81.200917430000004</v>
@@ -13485,10 +13179,10 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B445" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C445">
         <v>73.902752289999995</v>
@@ -13508,10 +13202,10 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B446" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C446">
         <v>78.824770639999997</v>
@@ -13531,10 +13225,10 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B447" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C447">
         <v>82.672477060000006</v>
@@ -13554,10 +13248,10 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B448" s="28" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C448">
         <v>54.221100919999998</v>
@@ -13577,10 +13271,10 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B449" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C449">
         <v>74.745871559999998</v>
@@ -13600,10 +13294,10 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B450" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C450">
         <v>79.89082569</v>
@@ -13623,10 +13317,10 @@
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B451" s="28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C451">
         <v>83.981651380000002</v>
@@ -13646,10 +13340,10 @@
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B452" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C452">
         <v>65.076146789999996</v>
@@ -13669,10 +13363,10 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B453" s="28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C453">
         <v>84.193577980000001</v>
@@ -13692,10 +13386,10 @@
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B454" s="28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C454">
         <v>75.347706419999994</v>
@@ -13715,10 +13409,10 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B455" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C455">
         <v>76.136697249999997</v>
@@ -13738,10 +13432,10 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B456" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C456">
         <v>55.062385319999997</v>
@@ -13761,10 +13455,10 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B457" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C457">
         <v>81.882568809999995</v>
@@ -13784,10 +13478,10 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B458" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C458">
         <v>75.937614679999996</v>
@@ -13807,10 +13501,10 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B459" s="28" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C459">
         <v>63.728440370000001</v>
@@ -13830,10 +13524,10 @@
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B460" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C460">
         <v>77.502752290000004</v>
@@ -13853,10 +13547,10 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B461" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C461">
         <v>67.577064219999997</v>
@@ -13876,10 +13570,10 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B462" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C462">
         <v>72.318348619999995</v>
@@ -13899,10 +13593,10 @@
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B463" s="28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C463">
         <v>76.61376147</v>
@@ -13922,10 +13616,10 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B464" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C464">
         <v>88.791743120000007</v>
@@ -13945,10 +13639,10 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B465" s="28" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C465">
         <v>66.420183489999999</v>
@@ -13968,10 +13662,10 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B466" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C466">
         <v>60.028440369999998</v>
@@ -13991,10 +13685,10 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B467" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C467">
         <v>76.537614680000004</v>
@@ -14014,10 +13708,10 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B468" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C468">
         <v>75.357798169999995</v>
@@ -14037,10 +13731,10 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B469" s="28" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C469">
         <v>82.4706422</v>
@@ -14060,10 +13754,10 @@
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B470" s="28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C470">
         <v>72.273394499999995</v>
@@ -14083,10 +13777,10 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B471" s="28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C471">
         <v>75.396330280000001</v>
@@ -14106,10 +13800,10 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B472" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C472">
         <v>83.66788991</v>
@@ -14129,10 +13823,10 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B473" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C473">
         <v>75.557798169999998</v>
@@ -14152,10 +13846,10 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B474" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C474">
         <v>84.898165140000003</v>
@@ -14175,10 +13869,10 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B475" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C475">
         <v>83.653211010000007</v>
@@ -14198,10 +13892,10 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B476" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C476">
         <v>76.183486239999993</v>
@@ -14221,10 +13915,10 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B477" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C477">
         <v>86.239449539999995</v>
@@ -14244,10 +13938,10 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B478" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C478">
         <v>77.205504590000004</v>
@@ -14267,10 +13961,10 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B479" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C479">
         <v>86.385321099999999</v>
@@ -14290,10 +13984,10 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B480" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C480">
         <v>74.645871560000003</v>
@@ -14313,10 +14007,10 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B481" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C481">
         <v>77.151376150000004</v>
@@ -14336,10 +14030,10 @@
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B482" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C482">
         <v>74.796330280000006</v>
@@ -14359,10 +14053,10 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B483" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C483">
         <v>75.370642200000006</v>
@@ -14382,10 +14076,10 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B484" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C484">
         <v>83.295412839999997</v>
@@ -14405,10 +14099,10 @@
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B485" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C485">
         <v>75.044954129999994</v>
@@ -14428,10 +14122,10 @@
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B486" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C486">
         <v>79.881651379999994</v>
@@ -14451,10 +14145,10 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B487" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C487">
         <v>48.675229360000003</v>
@@ -14474,10 +14168,10 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B488" s="28" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C488">
         <v>73.002752290000004</v>
@@ -14497,10 +14191,10 @@
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B489" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C489">
         <v>74.256880730000006</v>
@@ -14520,10 +14214,10 @@
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B490" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C490">
         <v>75.466055049999994</v>
@@ -14543,10 +14237,10 @@
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B491" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C491">
         <v>81.805504589999998</v>
@@ -14566,10 +14260,10 @@
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B492" s="28" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C492">
         <v>76.094495409999993</v>
@@ -14589,10 +14283,10 @@
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B493" s="28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C493">
         <v>76.383486239999996</v>
@@ -14612,10 +14306,10 @@
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B494" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C494">
         <v>66.967889909999997</v>
@@ -14635,10 +14329,10 @@
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B495" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C495">
         <v>56.764220180000002</v>
@@ -14658,10 +14352,10 @@
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B496" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C496">
         <v>87.28165138</v>
@@ -14681,10 +14375,10 @@
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B497" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C497">
         <v>82.625688069999995</v>
@@ -14704,10 +14398,10 @@
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B498" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C498">
         <v>75</v>
@@ -14727,10 +14421,10 @@
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B499" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C499">
         <v>81.794495409999996</v>
@@ -14750,10 +14444,10 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B500" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C500">
         <v>64.720183489999997</v>
@@ -14773,10 +14467,10 @@
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B501" s="28" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C501">
         <v>84.912844039999996</v>
@@ -14797,12 +14491,12 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A2:A501">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+    <cfRule type="containsBlanks" dxfId="13" priority="2">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:G1">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14814,6 +14508,312 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829331A2-8F6C-4EC4-B723-84C59F96FDF0}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{A99E7B79-269E-427E-A290-9658276FC0EE}">
+      <formula1>$H$2:$H$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2115B6D0-8EC1-4029-B8F6-04E7D9736B3A}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" style="20" customWidth="1"/>
+    <col min="2" max="4" width="40.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="53.140625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="25" style="20" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="20" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{951A75F7-9D83-4062-A7DB-FACA051BDF1B}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{F823BE20-EE66-4B0B-B274-ED477E4F3F15}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15060F94-A002-4DF7-B5C1-F50E070EED1D}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="2">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2">
+        <v>56.483772999999999</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-3.1137009999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D3" s="2">
+        <v>157</v>
+      </c>
+      <c r="E3" s="2">
+        <v>51.829211999999998</v>
+      </c>
+      <c r="F3" s="2">
+        <v>11.270479</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A3">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ISO 3166-1 alpha-2" prompt="https://en.wikipedia.org/wiki/ISO_3166-1_alpha-2_x000a_" sqref="C1" xr:uid="{D8191B89-1BA7-4D9F-9206-C90041F1F31E}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -14836,30 +14836,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2">
         <v>21</v>
@@ -14873,13 +14873,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="D3" s="2">
         <v>157</v>
@@ -14954,85 +14954,85 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
         <v>64</v>
       </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -15073,10 +15073,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>72</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
